--- a/template/split_be.xlsx
+++ b/template/split_be.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14740" activeTab="2"/>
+    <workbookView windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LWT for Amzon" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="117">
   <si>
     <t>European Amazon Declared Value-Analysis Report(v2.0)</t>
   </si>
@@ -367,38 +367,6 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">exchange rate </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="14"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://www.belastingdienst.nl/rekenhulpen/wisselkoersen/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Category commission rate </t>
     </r>
     <r>
@@ -549,6 +517,9 @@
     <t xml:space="preserve">Selling Price in Cdiscount			</t>
   </si>
   <si>
+    <t>Cdiscount cost(In Euro)</t>
+  </si>
+  <si>
     <t>Profit</t>
   </si>
   <si>
@@ -639,12 +610,12 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00&quot; &quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.00&quot; &quot;"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
     <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -653,6 +624,12 @@
     </font>
     <font>
       <sz val="30"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -681,44 +658,6 @@
       <sz val="20"/>
       <color indexed="15"/>
       <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="30"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="14"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -871,13 +810,6 @@
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -1124,55 +1056,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="8"/>
       </left>
       <right/>
@@ -1198,6 +1081,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="11"/>
@@ -1209,12 +1112,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1329,152 +1261,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1483,203 +1415,167 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5685,8 +5581,8 @@
   <sheetPr/>
   <dimension ref="A1:AP16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="$A1:$XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88392857142857" defaultRowHeight="13.95" customHeight="1"/>
@@ -5729,850 +5625,850 @@
   </cols>
   <sheetData>
     <row r="1" s="50" customFormat="1" ht="34.2" customHeight="1" spans="1:42">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="90"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="51"/>
     </row>
     <row r="2" s="50" customFormat="1" ht="26.55" customHeight="1" spans="1:42">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="53" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="53" t="s">
+      <c r="S2" s="53"/>
+      <c r="T2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="53" t="s">
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="53" t="s">
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="53" t="s">
+      <c r="AL2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="53" t="s">
+      <c r="AM2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="91" t="s">
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" s="50" customFormat="1" ht="60" customHeight="1" spans="1:42">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="53" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="P3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="88" t="s">
+      <c r="U3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="53" t="s">
+      <c r="V3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="53" t="s">
+      <c r="W3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="53" t="s">
+      <c r="X3" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="53" t="s">
+      <c r="Y3" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="53" t="s">
+      <c r="Z3" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="53" t="s">
+      <c r="AA3" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="53" t="s">
+      <c r="AB3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="53" t="s">
+      <c r="AC3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="53" t="s">
+      <c r="AD3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="53" t="s">
+      <c r="AE3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="53" t="s">
+      <c r="AF3" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="53" t="s">
+      <c r="AG3" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" s="53" t="s">
+      <c r="AH3" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AI3" s="53" t="s">
+      <c r="AI3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AJ3" s="53" t="s">
+      <c r="AJ3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="53" t="s">
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AN3" s="88" t="s">
+      <c r="AN3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AO3" s="53" t="s">
+      <c r="AO3" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="AP3" s="92"/>
+      <c r="AP3" s="56"/>
     </row>
     <row r="4" s="50" customFormat="1" ht="14.25" customHeight="1" spans="1:42">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="83"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="83"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="94"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="63"/>
     </row>
     <row r="5" s="50" customFormat="1" ht="14.25" customHeight="1" spans="1:42">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="73"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="95"/>
-      <c r="AP5" s="96"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="65"/>
+      <c r="AL5" s="65"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="65"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="70"/>
     </row>
     <row r="6" s="50" customFormat="1" ht="20.25" customHeight="1" spans="1:42">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="73"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="73"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="58"/>
-      <c r="AL6" s="58"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="58"/>
-      <c r="AO6" s="95"/>
-      <c r="AP6" s="96"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="65"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="70"/>
     </row>
     <row r="7" s="50" customFormat="1" ht="16.5" customHeight="1" spans="1:42">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="63" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="73"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="58"/>
-      <c r="AL7" s="58"/>
-      <c r="AM7" s="84"/>
-      <c r="AN7" s="58"/>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="96"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="65"/>
+      <c r="AL7" s="65"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="65"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="70"/>
     </row>
     <row r="8" s="50" customFormat="1" ht="16.5" customHeight="1" spans="1:42">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="63" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="73"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="84"/>
-      <c r="AJ8" s="84"/>
-      <c r="AK8" s="58"/>
-      <c r="AL8" s="58"/>
-      <c r="AM8" s="84"/>
-      <c r="AN8" s="58"/>
-      <c r="AO8" s="95"/>
-      <c r="AP8" s="96"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="68"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="70"/>
     </row>
     <row r="9" s="50" customFormat="1" ht="15" customHeight="1" spans="1:42">
-      <c r="A9" s="65"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="64" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="84"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="58"/>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="58"/>
-      <c r="AO9" s="95"/>
-      <c r="AP9" s="96"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="68"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="70"/>
     </row>
     <row r="10" s="50" customFormat="1" ht="16.5" customHeight="1" spans="1:42">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="63" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="95"/>
-      <c r="AP10" s="96"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="68"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="70"/>
     </row>
     <row r="11" s="50" customFormat="1" ht="15" customHeight="1" spans="1:42">
-      <c r="A11" s="67"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="63" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="95"/>
-      <c r="AP11" s="96"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="65"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="70"/>
     </row>
     <row r="12" s="50" customFormat="1" ht="15" customHeight="1" spans="1:42">
-      <c r="A12" s="67"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="63" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="95"/>
-      <c r="AP12" s="96"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="70"/>
     </row>
     <row r="13" s="50" customFormat="1" ht="15" customHeight="1" spans="1:42">
-      <c r="A13" s="67"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="63" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="73"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="73"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="95"/>
-      <c r="AP13" s="96"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="65"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="70"/>
     </row>
     <row r="14" s="50" customFormat="1" ht="15" customHeight="1" spans="1:42">
-      <c r="A14" s="67"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="63" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="95"/>
-      <c r="AP14" s="96"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="65"/>
+      <c r="AL14" s="65"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="65"/>
+      <c r="AO14" s="69"/>
+      <c r="AP14" s="70"/>
     </row>
     <row r="15" s="50" customFormat="1" ht="15" customHeight="1" spans="1:42">
-      <c r="A15" s="67"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="63" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="73"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="58"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="58"/>
-      <c r="AO15" s="95"/>
-      <c r="AP15" s="96"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="70"/>
     </row>
     <row r="16" s="50" customFormat="1" ht="25.5" customHeight="1" spans="1:42">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="85" t="s">
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="N16" s="86"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="86"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="86"/>
-      <c r="AJ16" s="86"/>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="86"/>
-      <c r="AN16" s="82"/>
-      <c r="AO16" s="97"/>
-      <c r="AP16" s="98"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="83"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="83"/>
+      <c r="AJ16" s="83"/>
+      <c r="AK16" s="81"/>
+      <c r="AL16" s="81"/>
+      <c r="AM16" s="83"/>
+      <c r="AN16" s="81"/>
+      <c r="AO16" s="85"/>
+      <c r="AP16" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -6620,7 +6516,7 @@
   <dimension ref="A1:AV17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" customHeight="1"/>
@@ -6714,957 +6610,957 @@
       <c r="AR1" s="3"/>
       <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="41"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="26.5" customHeight="1" spans="1:48">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="4" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="4" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="4" t="s">
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="4" t="s">
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AR2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AS2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="42" t="s">
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="60" customHeight="1" spans="1:48">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="U3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AN3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="4" t="s">
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AT3" s="36" t="s">
+      <c r="AT3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AV3" s="43"/>
+      <c r="AV3" s="11"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:48">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="44"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="18"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:48">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="45"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="24"/>
+      <c r="AV5" s="25"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:48">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="39"/>
-      <c r="AV6" s="45"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="25"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:48">
-      <c r="A7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="9"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="46"/>
+      <c r="D7" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AV7" s="35"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:48">
-      <c r="A8" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="9"/>
-      <c r="AU8" s="9"/>
-      <c r="AV8" s="46"/>
+      <c r="D8" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="20"/>
+      <c r="AV8" s="35"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:48">
-      <c r="A9" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="9"/>
-      <c r="AT9" s="9"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="46"/>
+      <c r="D9" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="35"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="15" customHeight="1" spans="1:48">
-      <c r="A10" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="9"/>
-      <c r="AV10" s="46"/>
+      <c r="A10" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="35"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="15" customHeight="1" spans="1:48">
-      <c r="A11" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="46"/>
+      <c r="A11" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="35"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="15" customHeight="1" spans="1:48">
-      <c r="A12" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="46"/>
+      <c r="A12" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="35"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:48">
-      <c r="A13" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="9"/>
-      <c r="AT13" s="9"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="46"/>
+      <c r="D13" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="35"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15" customHeight="1" spans="1:48">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="9"/>
-      <c r="AV14" s="46"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="20"/>
+      <c r="AV14" s="35"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:48">
-      <c r="A15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="9"/>
-      <c r="AT15" s="9"/>
-      <c r="AU15" s="9"/>
-      <c r="AV15" s="46"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="35"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="15" customHeight="1" spans="1:48">
       <c r="A16" s="48"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="49"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="32"/>
-      <c r="AT16" s="9"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="45"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="20"/>
+      <c r="AU16" s="24"/>
+      <c r="AV16" s="25"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="25.5" customHeight="1" spans="1:48">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="33" t="s">
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="N17" s="34"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="34"/>
-      <c r="AQ17" s="30"/>
-      <c r="AR17" s="30"/>
-      <c r="AS17" s="34"/>
-      <c r="AT17" s="30"/>
-      <c r="AU17" s="40"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="45"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="45"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="42"/>
+      <c r="AU17" s="46"/>
       <c r="AV17" s="47"/>
     </row>
   </sheetData>
@@ -7714,8 +7610,8 @@
   <sheetPr/>
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" customHeight="1"/>
@@ -7770,7 +7666,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34.5" customHeight="1" spans="1:53">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7822,762 +7718,762 @@
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="41"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="26.5" customHeight="1" spans="1:53">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="4" t="s">
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="4" t="s">
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AW2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AX2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="42" t="s">
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="60" customHeight="1" spans="1:53">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="U3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="X3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="AC3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AF3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="AJ3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AS3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AT3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="4" t="s">
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AY3" s="36" t="s">
+      <c r="AY3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="AZ3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="BA3" s="43"/>
+      <c r="BA3" s="11"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:53">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="44"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="18"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:53">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="45"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="21"/>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="24"/>
+      <c r="BA5" s="25"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:53">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="39"/>
-      <c r="BA6" s="45"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="23"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="23"/>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="24"/>
+      <c r="BA6" s="25"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:53">
-      <c r="A7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="9"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="9"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="9"/>
-      <c r="BA7" s="46"/>
+      <c r="D7" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AV7" s="20"/>
+      <c r="AW7" s="20"/>
+      <c r="AX7" s="20"/>
+      <c r="AY7" s="20"/>
+      <c r="AZ7" s="20"/>
+      <c r="BA7" s="35"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:53">
-      <c r="A8" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="9"/>
-      <c r="AU8" s="9"/>
-      <c r="AV8" s="9"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="9"/>
-      <c r="AY8" s="9"/>
-      <c r="AZ8" s="9"/>
-      <c r="BA8" s="46"/>
+      <c r="D8" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="20"/>
+      <c r="AV8" s="20"/>
+      <c r="AW8" s="20"/>
+      <c r="AX8" s="20"/>
+      <c r="AY8" s="20"/>
+      <c r="AZ8" s="20"/>
+      <c r="BA8" s="35"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="1:53">
-      <c r="A9" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="9"/>
-      <c r="AT9" s="9"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="9"/>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="9"/>
-      <c r="AY9" s="9"/>
-      <c r="AZ9" s="9"/>
-      <c r="BA9" s="46"/>
+      <c r="A9" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20"/>
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="35"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:53">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="9"/>
-      <c r="AV10" s="9"/>
-      <c r="AW10" s="9"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="46"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="35"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:53">
-      <c r="A11" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="46"/>
+      <c r="D11" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="35"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="25.5" customHeight="1" spans="1:53">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="33" t="s">
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="35"/>
-      <c r="AQ12" s="34"/>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="34"/>
-      <c r="AT12" s="34"/>
-      <c r="AU12" s="34"/>
-      <c r="AV12" s="30"/>
-      <c r="AW12" s="30"/>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="30"/>
-      <c r="AZ12" s="40"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="44"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="46"/>
       <c r="BA12" s="47"/>
     </row>
   </sheetData>
